--- a/staff_data_pu.xlsx
+++ b/staff_data_pu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus_technology\backend-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F5B92AB-AE21-41E3-9ECE-E00A8BFEEE7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0AD9B-E28C-4909-A999-0674C89511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,9 @@
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Users!$A$1:$AK$458</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -7003,8 +7006,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA295" workbookViewId="0">
-      <selection activeCell="AM312" sqref="AM312"/>
+    <sheetView tabSelected="1" topLeftCell="AE482" workbookViewId="0">
+      <selection activeCell="AM14" sqref="AM14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -35395,6 +35398,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AK458" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B19:B73">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/staff_data_pu.xlsx
+++ b/staff_data_pu.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus_technology\backend-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70D0AD9B-E28C-4909-A999-0674C89511E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6073A13-E0C7-4827-9907-9D47BCC446E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -7004,10 +7004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AK458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE482" workbookViewId="0">
-      <selection activeCell="AM14" sqref="AM14"/>
+    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
+      <selection sqref="A1:D306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -7144,7 +7145,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:37">
+    <row r="2" spans="1:37" hidden="1">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -7205,7 +7206,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="3" spans="1:37">
+    <row r="3" spans="1:37" hidden="1">
       <c r="A3" s="1" t="s">
         <v>53</v>
       </c>
@@ -7268,7 +7269,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="4" spans="1:37">
+    <row r="4" spans="1:37" hidden="1">
       <c r="A4" s="1" t="s">
         <v>54</v>
       </c>
@@ -7331,7 +7332,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="5" spans="1:37">
+    <row r="5" spans="1:37" hidden="1">
       <c r="A5" s="1" t="s">
         <v>55</v>
       </c>
@@ -7394,7 +7395,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:37">
+    <row r="6" spans="1:37" hidden="1">
       <c r="A6" s="1" t="s">
         <v>56</v>
       </c>
@@ -7457,7 +7458,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="7" spans="1:37">
+    <row r="7" spans="1:37" hidden="1">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -7520,7 +7521,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:37">
+    <row r="8" spans="1:37" hidden="1">
       <c r="A8" s="1" t="s">
         <v>58</v>
       </c>
@@ -7583,7 +7584,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="9" spans="1:37">
+    <row r="9" spans="1:37" hidden="1">
       <c r="A9" s="1" t="s">
         <v>59</v>
       </c>
@@ -7646,7 +7647,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="10" spans="1:37">
+    <row r="10" spans="1:37" hidden="1">
       <c r="A10" s="1" t="s">
         <v>60</v>
       </c>
@@ -7709,7 +7710,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="11" spans="1:37">
+    <row r="11" spans="1:37" hidden="1">
       <c r="A11" s="1" t="s">
         <v>61</v>
       </c>
@@ -7772,7 +7773,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="1:37">
+    <row r="12" spans="1:37" hidden="1">
       <c r="A12" s="1" t="s">
         <v>62</v>
       </c>
@@ -7835,7 +7836,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="13" spans="1:37">
+    <row r="13" spans="1:37" hidden="1">
       <c r="A13" s="1" t="s">
         <v>63</v>
       </c>
@@ -7898,7 +7899,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="14" spans="1:37">
+    <row r="14" spans="1:37" hidden="1">
       <c r="A14" s="1" t="s">
         <v>64</v>
       </c>
@@ -7961,7 +7962,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="15" spans="1:37">
+    <row r="15" spans="1:37" hidden="1">
       <c r="A15" s="1" t="s">
         <v>65</v>
       </c>
@@ -8024,7 +8025,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:37">
+    <row r="16" spans="1:37" hidden="1">
       <c r="A16" s="1" t="s">
         <v>66</v>
       </c>
@@ -8085,7 +8086,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:37">
+    <row r="17" spans="1:37" hidden="1">
       <c r="A17" s="1" t="s">
         <v>67</v>
       </c>
@@ -8148,7 +8149,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="18" spans="1:37">
+    <row r="18" spans="1:37" hidden="1">
       <c r="A18" s="1" t="s">
         <v>68</v>
       </c>
@@ -8211,7 +8212,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="19" spans="1:37">
+    <row r="19" spans="1:37" hidden="1">
       <c r="A19" s="11" t="s">
         <v>112</v>
       </c>
@@ -8273,7 +8274,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" hidden="1">
       <c r="A20" s="11" t="s">
         <v>113</v>
       </c>
@@ -8335,7 +8336,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="21" spans="1:37">
+    <row r="21" spans="1:37" hidden="1">
       <c r="A21" s="11" t="s">
         <v>114</v>
       </c>
@@ -8397,7 +8398,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="22" spans="1:37">
+    <row r="22" spans="1:37" hidden="1">
       <c r="A22" s="11" t="s">
         <v>115</v>
       </c>
@@ -8459,7 +8460,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="23" spans="1:37">
+    <row r="23" spans="1:37" hidden="1">
       <c r="A23" s="11" t="s">
         <v>116</v>
       </c>
@@ -8521,7 +8522,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="24" spans="1:37">
+    <row r="24" spans="1:37" hidden="1">
       <c r="A24" s="11" t="s">
         <v>117</v>
       </c>
@@ -8583,7 +8584,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="25" spans="1:37">
+    <row r="25" spans="1:37" hidden="1">
       <c r="A25" s="11" t="s">
         <v>118</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="26" spans="1:37">
+    <row r="26" spans="1:37" hidden="1">
       <c r="A26" s="11" t="s">
         <v>119</v>
       </c>
@@ -8707,7 +8708,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="27" spans="1:37">
+    <row r="27" spans="1:37" hidden="1">
       <c r="A27" s="11" t="s">
         <v>120</v>
       </c>
@@ -8769,7 +8770,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="28" spans="1:37">
+    <row r="28" spans="1:37" hidden="1">
       <c r="A28" s="11" t="s">
         <v>121</v>
       </c>
@@ -8831,7 +8832,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="29" spans="1:37">
+    <row r="29" spans="1:37" hidden="1">
       <c r="A29" s="11" t="s">
         <v>122</v>
       </c>
@@ -8893,7 +8894,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="30" spans="1:37">
+    <row r="30" spans="1:37" hidden="1">
       <c r="A30" s="11" t="s">
         <v>123</v>
       </c>
@@ -8955,7 +8956,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="31" spans="1:37">
+    <row r="31" spans="1:37" hidden="1">
       <c r="A31" s="11" t="s">
         <v>124</v>
       </c>
@@ -9017,7 +9018,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="32" spans="1:37">
+    <row r="32" spans="1:37" hidden="1">
       <c r="A32" s="11" t="s">
         <v>125</v>
       </c>
@@ -9079,7 +9080,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" hidden="1">
       <c r="A33" s="11" t="s">
         <v>126</v>
       </c>
@@ -9141,7 +9142,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" hidden="1">
       <c r="A34" s="11" t="s">
         <v>127</v>
       </c>
@@ -9203,7 +9204,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" hidden="1">
       <c r="A35" s="11" t="s">
         <v>128</v>
       </c>
@@ -9265,7 +9266,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" hidden="1">
       <c r="A36" s="11" t="s">
         <v>129</v>
       </c>
@@ -9327,7 +9328,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" hidden="1">
       <c r="A37" s="11" t="s">
         <v>130</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" hidden="1">
       <c r="A38" s="11" t="s">
         <v>131</v>
       </c>
@@ -9451,7 +9452,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" hidden="1">
       <c r="A39" s="11" t="s">
         <v>132</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" hidden="1">
       <c r="A40" s="11" t="s">
         <v>133</v>
       </c>
@@ -9575,7 +9576,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" hidden="1">
       <c r="A41" s="11" t="s">
         <v>134</v>
       </c>
@@ -9637,7 +9638,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" hidden="1">
       <c r="A42" s="11" t="s">
         <v>135</v>
       </c>
@@ -9699,7 +9700,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" hidden="1">
       <c r="A43" s="11" t="s">
         <v>136</v>
       </c>
@@ -9759,7 +9760,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" hidden="1">
       <c r="A44" s="11" t="s">
         <v>137</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" hidden="1">
       <c r="A45" s="11" t="s">
         <v>138</v>
       </c>
@@ -9883,7 +9884,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" hidden="1">
       <c r="A46" s="11" t="s">
         <v>139</v>
       </c>
@@ -9945,7 +9946,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" hidden="1">
       <c r="A47" s="11" t="s">
         <v>140</v>
       </c>
@@ -10007,7 +10008,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" hidden="1">
       <c r="A48" s="11" t="s">
         <v>141</v>
       </c>
@@ -10067,7 +10068,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="49" spans="1:37">
+    <row r="49" spans="1:37" hidden="1">
       <c r="A49" s="11" t="s">
         <v>142</v>
       </c>
@@ -10129,7 +10130,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="50" spans="1:37">
+    <row r="50" spans="1:37" hidden="1">
       <c r="A50" s="11" t="s">
         <v>143</v>
       </c>
@@ -10191,7 +10192,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="51" spans="1:37">
+    <row r="51" spans="1:37" hidden="1">
       <c r="A51" s="11" t="s">
         <v>144</v>
       </c>
@@ -10251,7 +10252,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="52" spans="1:37">
+    <row r="52" spans="1:37" hidden="1">
       <c r="A52" s="11" t="s">
         <v>145</v>
       </c>
@@ -10313,7 +10314,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="53" spans="1:37">
+    <row r="53" spans="1:37" hidden="1">
       <c r="A53" s="11" t="s">
         <v>146</v>
       </c>
@@ -10375,7 +10376,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="54" spans="1:37">
+    <row r="54" spans="1:37" hidden="1">
       <c r="A54" s="11" t="s">
         <v>147</v>
       </c>
@@ -10437,7 +10438,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="55" spans="1:37">
+    <row r="55" spans="1:37" hidden="1">
       <c r="A55" s="11" t="s">
         <v>148</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="56" spans="1:37">
+    <row r="56" spans="1:37" hidden="1">
       <c r="A56" s="11" t="s">
         <v>149</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="57" spans="1:37">
+    <row r="57" spans="1:37" hidden="1">
       <c r="A57" s="11" t="s">
         <v>150</v>
       </c>
@@ -10621,7 +10622,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="58" spans="1:37">
+    <row r="58" spans="1:37" hidden="1">
       <c r="A58" s="11" t="s">
         <v>151</v>
       </c>
@@ -10683,7 +10684,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="59" spans="1:37">
+    <row r="59" spans="1:37" hidden="1">
       <c r="A59" s="11" t="s">
         <v>152</v>
       </c>
@@ -10745,7 +10746,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="60" spans="1:37">
+    <row r="60" spans="1:37" hidden="1">
       <c r="A60" s="11" t="s">
         <v>153</v>
       </c>
@@ -10807,7 +10808,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="61" spans="1:37">
+    <row r="61" spans="1:37" hidden="1">
       <c r="A61" s="11" t="s">
         <v>154</v>
       </c>
@@ -10869,7 +10870,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="62" spans="1:37">
+    <row r="62" spans="1:37" hidden="1">
       <c r="A62" s="11" t="s">
         <v>155</v>
       </c>
@@ -10931,7 +10932,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="63" spans="1:37">
+    <row r="63" spans="1:37" hidden="1">
       <c r="A63" s="11" t="s">
         <v>156</v>
       </c>
@@ -10993,7 +10994,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="64" spans="1:37">
+    <row r="64" spans="1:37" hidden="1">
       <c r="A64" s="11" t="s">
         <v>157</v>
       </c>
@@ -11055,7 +11056,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="65" spans="1:37">
+    <row r="65" spans="1:37" hidden="1">
       <c r="A65" s="11" t="s">
         <v>158</v>
       </c>
@@ -11117,7 +11118,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="66" spans="1:37">
+    <row r="66" spans="1:37" hidden="1">
       <c r="A66" s="11" t="s">
         <v>159</v>
       </c>
@@ -11179,7 +11180,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="67" spans="1:37">
+    <row r="67" spans="1:37" hidden="1">
       <c r="A67" s="11" t="s">
         <v>160</v>
       </c>
@@ -11241,7 +11242,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="68" spans="1:37">
+    <row r="68" spans="1:37" hidden="1">
       <c r="A68" s="11" t="s">
         <v>161</v>
       </c>
@@ -11303,7 +11304,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="69" spans="1:37">
+    <row r="69" spans="1:37" hidden="1">
       <c r="A69" s="11" t="s">
         <v>162</v>
       </c>
@@ -11365,7 +11366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="70" spans="1:37">
+    <row r="70" spans="1:37" hidden="1">
       <c r="A70" s="11" t="s">
         <v>163</v>
       </c>
@@ -11427,7 +11428,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="71" spans="1:37">
+    <row r="71" spans="1:37" hidden="1">
       <c r="A71" s="11" t="s">
         <v>164</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="72" spans="1:37">
+    <row r="72" spans="1:37" hidden="1">
       <c r="A72" s="11" t="s">
         <v>165</v>
       </c>
@@ -11551,7 +11552,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="73" spans="1:37">
+    <row r="73" spans="1:37" hidden="1">
       <c r="A73" s="11" t="s">
         <v>166</v>
       </c>
@@ -11613,7 +11614,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:37">
+    <row r="74" spans="1:37" hidden="1">
       <c r="A74" s="1" t="s">
         <v>355</v>
       </c>
@@ -11675,7 +11676,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:37">
+    <row r="75" spans="1:37" hidden="1">
       <c r="A75" s="1" t="s">
         <v>356</v>
       </c>
@@ -11737,7 +11738,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:37">
+    <row r="76" spans="1:37" hidden="1">
       <c r="A76" s="1" t="s">
         <v>357</v>
       </c>
@@ -11799,7 +11800,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="1:37">
+    <row r="77" spans="1:37" hidden="1">
       <c r="A77" s="1" t="s">
         <v>358</v>
       </c>
@@ -11861,7 +11862,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="78" spans="1:37">
+    <row r="78" spans="1:37" hidden="1">
       <c r="A78" s="1" t="s">
         <v>359</v>
       </c>
@@ -11923,7 +11924,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:37">
+    <row r="79" spans="1:37" hidden="1">
       <c r="A79" s="1" t="s">
         <v>360</v>
       </c>
@@ -11985,7 +11986,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:37">
+    <row r="80" spans="1:37" hidden="1">
       <c r="A80" s="1" t="s">
         <v>361</v>
       </c>
@@ -12047,7 +12048,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:37">
+    <row r="81" spans="1:37" hidden="1">
       <c r="A81" s="1" t="s">
         <v>362</v>
       </c>
@@ -12109,7 +12110,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:37">
+    <row r="82" spans="1:37" hidden="1">
       <c r="A82" s="1" t="s">
         <v>363</v>
       </c>
@@ -12171,7 +12172,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:37">
+    <row r="83" spans="1:37" hidden="1">
       <c r="A83" s="1" t="s">
         <v>364</v>
       </c>
@@ -12233,7 +12234,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:37">
+    <row r="84" spans="1:37" hidden="1">
       <c r="A84" s="1" t="s">
         <v>365</v>
       </c>
@@ -12295,7 +12296,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:37">
+    <row r="85" spans="1:37" hidden="1">
       <c r="A85" s="1" t="s">
         <v>366</v>
       </c>
@@ -12357,7 +12358,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="1:37">
+    <row r="86" spans="1:37" hidden="1">
       <c r="A86" s="1" t="s">
         <v>367</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="87" spans="1:37">
+    <row r="87" spans="1:37" hidden="1">
       <c r="A87" s="3" t="s">
         <v>439</v>
       </c>
@@ -12481,7 +12482,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="88" spans="1:37">
+    <row r="88" spans="1:37" hidden="1">
       <c r="A88" s="3" t="s">
         <v>440</v>
       </c>
@@ -12543,7 +12544,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="89" spans="1:37">
+    <row r="89" spans="1:37" hidden="1">
       <c r="A89" s="3" t="s">
         <v>441</v>
       </c>
@@ -12605,7 +12606,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="90" spans="1:37">
+    <row r="90" spans="1:37" hidden="1">
       <c r="A90" s="3" t="s">
         <v>442</v>
       </c>
@@ -12667,7 +12668,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="91" spans="1:37">
+    <row r="91" spans="1:37" hidden="1">
       <c r="A91" s="3" t="s">
         <v>443</v>
       </c>
@@ -12729,7 +12730,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="92" spans="1:37">
+    <row r="92" spans="1:37" hidden="1">
       <c r="A92" s="3" t="s">
         <v>444</v>
       </c>
@@ -12791,7 +12792,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="93" spans="1:37">
+    <row r="93" spans="1:37" hidden="1">
       <c r="A93" s="3" t="s">
         <v>445</v>
       </c>
@@ -12851,7 +12852,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="94" spans="1:37">
+    <row r="94" spans="1:37" hidden="1">
       <c r="A94" s="3" t="s">
         <v>446</v>
       </c>
@@ -12913,7 +12914,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="95" spans="1:37">
+    <row r="95" spans="1:37" hidden="1">
       <c r="A95" s="3" t="s">
         <v>447</v>
       </c>
@@ -12975,7 +12976,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="96" spans="1:37">
+    <row r="96" spans="1:37" hidden="1">
       <c r="A96" s="3" t="s">
         <v>448</v>
       </c>
@@ -13037,7 +13038,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="97" spans="1:37">
+    <row r="97" spans="1:37" hidden="1">
       <c r="A97" s="3" t="s">
         <v>449</v>
       </c>
@@ -13099,7 +13100,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="98" spans="1:37">
+    <row r="98" spans="1:37" hidden="1">
       <c r="A98" s="3" t="s">
         <v>450</v>
       </c>
@@ -13161,7 +13162,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="99" spans="1:37">
+    <row r="99" spans="1:37" hidden="1">
       <c r="A99" s="3" t="s">
         <v>451</v>
       </c>
@@ -13223,7 +13224,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="100" spans="1:37">
+    <row r="100" spans="1:37" hidden="1">
       <c r="A100" s="3" t="s">
         <v>452</v>
       </c>
@@ -13285,7 +13286,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="101" spans="1:37">
+    <row r="101" spans="1:37" hidden="1">
       <c r="A101" s="3" t="s">
         <v>453</v>
       </c>
@@ -13347,7 +13348,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="102" spans="1:37">
+    <row r="102" spans="1:37" hidden="1">
       <c r="A102" s="3" t="s">
         <v>454</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="103" spans="1:37">
+    <row r="103" spans="1:37" hidden="1">
       <c r="A103" s="3" t="s">
         <v>455</v>
       </c>
@@ -13471,7 +13472,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="104" spans="1:37">
+    <row r="104" spans="1:37" hidden="1">
       <c r="A104" s="3" t="s">
         <v>456</v>
       </c>
@@ -13533,7 +13534,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="105" spans="1:37">
+    <row r="105" spans="1:37" hidden="1">
       <c r="A105" s="3" t="s">
         <v>457</v>
       </c>
@@ -13595,7 +13596,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="106" spans="1:37">
+    <row r="106" spans="1:37" hidden="1">
       <c r="A106" s="3" t="s">
         <v>458</v>
       </c>
@@ -13657,7 +13658,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="107" spans="1:37">
+    <row r="107" spans="1:37" hidden="1">
       <c r="A107" s="3" t="s">
         <v>459</v>
       </c>
@@ -13719,7 +13720,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" hidden="1">
       <c r="A108" s="1" t="s">
         <v>536</v>
       </c>
@@ -13781,7 +13782,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" hidden="1">
       <c r="A109" s="1" t="s">
         <v>537</v>
       </c>
@@ -13843,7 +13844,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" hidden="1">
       <c r="A110" s="1" t="s">
         <v>538</v>
       </c>
@@ -13905,7 +13906,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" hidden="1">
       <c r="A111" s="1" t="s">
         <v>539</v>
       </c>
@@ -13967,7 +13968,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" hidden="1">
       <c r="A112" s="1" t="s">
         <v>540</v>
       </c>
@@ -14029,7 +14030,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="113" spans="1:37">
+    <row r="113" spans="1:37" hidden="1">
       <c r="A113" s="1" t="s">
         <v>541</v>
       </c>
@@ -14091,7 +14092,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:37">
+    <row r="114" spans="1:37" hidden="1">
       <c r="A114" s="1" t="s">
         <v>542</v>
       </c>
@@ -14153,7 +14154,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="115" spans="1:37">
+    <row r="115" spans="1:37" hidden="1">
       <c r="A115" s="1" t="s">
         <v>543</v>
       </c>
@@ -14215,7 +14216,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="116" spans="1:37">
+    <row r="116" spans="1:37" hidden="1">
       <c r="A116" s="1" t="s">
         <v>544</v>
       </c>
@@ -14277,7 +14278,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="1:37">
+    <row r="117" spans="1:37" hidden="1">
       <c r="A117" s="1" t="s">
         <v>545</v>
       </c>
@@ -14339,7 +14340,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="118" spans="1:37">
+    <row r="118" spans="1:37" hidden="1">
       <c r="A118" s="1" t="s">
         <v>546</v>
       </c>
@@ -14401,7 +14402,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="119" spans="1:37">
+    <row r="119" spans="1:37" hidden="1">
       <c r="A119" s="1" t="s">
         <v>547</v>
       </c>
@@ -14463,7 +14464,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="120" spans="1:37">
+    <row r="120" spans="1:37" hidden="1">
       <c r="A120" s="1" t="s">
         <v>548</v>
       </c>
@@ -14525,7 +14526,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="121" spans="1:37">
+    <row r="121" spans="1:37" hidden="1">
       <c r="A121" s="1" t="s">
         <v>549</v>
       </c>
@@ -14587,7 +14588,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="122" spans="1:37">
+    <row r="122" spans="1:37" hidden="1">
       <c r="A122" s="1" t="s">
         <v>550</v>
       </c>
@@ -14649,7 +14650,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="123" spans="1:37">
+    <row r="123" spans="1:37" hidden="1">
       <c r="A123" s="1" t="s">
         <v>551</v>
       </c>
@@ -14711,7 +14712,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="124" spans="1:37">
+    <row r="124" spans="1:37" hidden="1">
       <c r="A124" s="1" t="s">
         <v>552</v>
       </c>
@@ -14773,7 +14774,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="125" spans="1:37">
+    <row r="125" spans="1:37" hidden="1">
       <c r="A125" s="1" t="s">
         <v>553</v>
       </c>
@@ -14835,7 +14836,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="126" spans="1:37">
+    <row r="126" spans="1:37" hidden="1">
       <c r="A126" s="1" t="s">
         <v>554</v>
       </c>
@@ -25979,7 +25980,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="307" spans="1:37">
+    <row r="307" spans="1:37" hidden="1">
       <c r="A307" s="1" t="s">
         <v>1548</v>
       </c>
@@ -26041,7 +26042,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="308" spans="1:37">
+    <row r="308" spans="1:37" hidden="1">
       <c r="A308" s="1" t="s">
         <v>1549</v>
       </c>
@@ -26103,7 +26104,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="309" spans="1:37">
+    <row r="309" spans="1:37" hidden="1">
       <c r="A309" s="1" t="s">
         <v>1550</v>
       </c>
@@ -26165,7 +26166,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="310" spans="1:37">
+    <row r="310" spans="1:37" hidden="1">
       <c r="A310" s="1" t="s">
         <v>1551</v>
       </c>
@@ -26227,7 +26228,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="311" spans="1:37">
+    <row r="311" spans="1:37" hidden="1">
       <c r="A311" s="1" t="s">
         <v>1552</v>
       </c>
@@ -26289,7 +26290,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="312" spans="1:37">
+    <row r="312" spans="1:37" hidden="1">
       <c r="A312" s="1" t="s">
         <v>1553</v>
       </c>
@@ -26351,7 +26352,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="313" spans="1:37">
+    <row r="313" spans="1:37" hidden="1">
       <c r="A313" s="1" t="s">
         <v>1554</v>
       </c>
@@ -26413,7 +26414,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="314" spans="1:37">
+    <row r="314" spans="1:37" hidden="1">
       <c r="A314" s="1" t="s">
         <v>1555</v>
       </c>
@@ -26475,7 +26476,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="315" spans="1:37">
+    <row r="315" spans="1:37" hidden="1">
       <c r="A315" s="1" t="s">
         <v>1556</v>
       </c>
@@ -26537,7 +26538,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="316" spans="1:37">
+    <row r="316" spans="1:37" hidden="1">
       <c r="A316" s="1" t="s">
         <v>1557</v>
       </c>
@@ -26599,7 +26600,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="317" spans="1:37">
+    <row r="317" spans="1:37" hidden="1">
       <c r="A317" s="1" t="s">
         <v>1558</v>
       </c>
@@ -26661,7 +26662,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="318" spans="1:37">
+    <row r="318" spans="1:37" hidden="1">
       <c r="A318" s="1" t="s">
         <v>1559</v>
       </c>
@@ -26723,7 +26724,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="319" spans="1:37">
+    <row r="319" spans="1:37" hidden="1">
       <c r="A319" s="1" t="s">
         <v>1560</v>
       </c>
@@ -26785,7 +26786,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="320" spans="1:37">
+    <row r="320" spans="1:37" hidden="1">
       <c r="A320" s="1" t="s">
         <v>1561</v>
       </c>
@@ -26847,7 +26848,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="321" spans="1:37">
+    <row r="321" spans="1:37" hidden="1">
       <c r="A321" s="1" t="s">
         <v>1562</v>
       </c>
@@ -26909,7 +26910,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="322" spans="1:37">
+    <row r="322" spans="1:37" hidden="1">
       <c r="A322" s="1" t="s">
         <v>1563</v>
       </c>
@@ -26971,7 +26972,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="323" spans="1:37">
+    <row r="323" spans="1:37" hidden="1">
       <c r="A323" s="1" t="s">
         <v>1564</v>
       </c>
@@ -27033,7 +27034,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="324" spans="1:37">
+    <row r="324" spans="1:37" hidden="1">
       <c r="A324" s="1" t="s">
         <v>1565</v>
       </c>
@@ -27095,7 +27096,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="325" spans="1:37">
+    <row r="325" spans="1:37" hidden="1">
       <c r="A325" s="1" t="s">
         <v>1566</v>
       </c>
@@ -27157,7 +27158,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="326" spans="1:37">
+    <row r="326" spans="1:37" hidden="1">
       <c r="A326" s="1" t="s">
         <v>1567</v>
       </c>
@@ -27219,7 +27220,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="327" spans="1:37">
+    <row r="327" spans="1:37" hidden="1">
       <c r="A327" s="1" t="s">
         <v>1568</v>
       </c>
@@ -27281,7 +27282,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="328" spans="1:37">
+    <row r="328" spans="1:37" hidden="1">
       <c r="A328" s="1" t="s">
         <v>1569</v>
       </c>
@@ -27343,7 +27344,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="329" spans="1:37">
+    <row r="329" spans="1:37" hidden="1">
       <c r="A329" s="1" t="s">
         <v>1570</v>
       </c>
@@ -27405,7 +27406,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="330" spans="1:37">
+    <row r="330" spans="1:37" hidden="1">
       <c r="A330" s="1" t="s">
         <v>1571</v>
       </c>
@@ -27467,7 +27468,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="331" spans="1:37">
+    <row r="331" spans="1:37" hidden="1">
       <c r="A331" s="1" t="s">
         <v>1572</v>
       </c>
@@ -27529,7 +27530,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="332" spans="1:37">
+    <row r="332" spans="1:37" hidden="1">
       <c r="A332" s="1" t="s">
         <v>1573</v>
       </c>
@@ -27591,7 +27592,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="333" spans="1:37">
+    <row r="333" spans="1:37" hidden="1">
       <c r="A333" s="1" t="s">
         <v>1574</v>
       </c>
@@ -27653,7 +27654,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="334" spans="1:37">
+    <row r="334" spans="1:37" hidden="1">
       <c r="A334" s="1" t="s">
         <v>1575</v>
       </c>
@@ -27715,7 +27716,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="335" spans="1:37">
+    <row r="335" spans="1:37" hidden="1">
       <c r="A335" s="1" t="s">
         <v>1576</v>
       </c>
@@ -27777,7 +27778,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="336" spans="1:37">
+    <row r="336" spans="1:37" hidden="1">
       <c r="A336" s="1" t="s">
         <v>1577</v>
       </c>
@@ -27839,7 +27840,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="337" spans="1:37">
+    <row r="337" spans="1:37" hidden="1">
       <c r="A337" s="1" t="s">
         <v>1578</v>
       </c>
@@ -27901,7 +27902,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="338" spans="1:37">
+    <row r="338" spans="1:37" hidden="1">
       <c r="A338" s="1" t="s">
         <v>1579</v>
       </c>
@@ -27963,7 +27964,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="339" spans="1:37">
+    <row r="339" spans="1:37" hidden="1">
       <c r="A339" s="1" t="s">
         <v>1580</v>
       </c>
@@ -28025,7 +28026,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="340" spans="1:37">
+    <row r="340" spans="1:37" hidden="1">
       <c r="A340" s="1" t="s">
         <v>1581</v>
       </c>
@@ -28087,7 +28088,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="341" spans="1:37">
+    <row r="341" spans="1:37" hidden="1">
       <c r="A341" s="1" t="s">
         <v>1582</v>
       </c>
@@ -28149,7 +28150,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="342" spans="1:37">
+    <row r="342" spans="1:37" hidden="1">
       <c r="A342" s="1" t="s">
         <v>1583</v>
       </c>
@@ -28211,7 +28212,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="343" spans="1:37">
+    <row r="343" spans="1:37" hidden="1">
       <c r="A343" s="1" t="s">
         <v>1584</v>
       </c>
@@ -28273,7 +28274,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="344" spans="1:37">
+    <row r="344" spans="1:37" hidden="1">
       <c r="A344" s="1" t="s">
         <v>1585</v>
       </c>
@@ -28335,7 +28336,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="345" spans="1:37">
+    <row r="345" spans="1:37" hidden="1">
       <c r="A345" s="1" t="s">
         <v>1586</v>
       </c>
@@ -28397,7 +28398,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="346" spans="1:37">
+    <row r="346" spans="1:37" hidden="1">
       <c r="A346" s="1" t="s">
         <v>1587</v>
       </c>
@@ -28459,7 +28460,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="347" spans="1:37">
+    <row r="347" spans="1:37" hidden="1">
       <c r="A347" s="1" t="s">
         <v>1588</v>
       </c>
@@ -28521,7 +28522,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="348" spans="1:37">
+    <row r="348" spans="1:37" hidden="1">
       <c r="A348" s="1" t="s">
         <v>1589</v>
       </c>
@@ -28583,7 +28584,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="349" spans="1:37">
+    <row r="349" spans="1:37" hidden="1">
       <c r="A349" s="1" t="s">
         <v>1590</v>
       </c>
@@ -28645,7 +28646,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="350" spans="1:37">
+    <row r="350" spans="1:37" hidden="1">
       <c r="A350" s="1" t="s">
         <v>1591</v>
       </c>
@@ -28707,7 +28708,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="351" spans="1:37">
+    <row r="351" spans="1:37" hidden="1">
       <c r="A351" s="1" t="s">
         <v>1592</v>
       </c>
@@ -28769,7 +28770,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="352" spans="1:37">
+    <row r="352" spans="1:37" hidden="1">
       <c r="A352" s="1" t="s">
         <v>1593</v>
       </c>
@@ -28831,7 +28832,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="353" spans="1:37">
+    <row r="353" spans="1:37" hidden="1">
       <c r="A353" s="1" t="s">
         <v>1594</v>
       </c>
@@ -28893,7 +28894,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="354" spans="1:37">
+    <row r="354" spans="1:37" hidden="1">
       <c r="A354" s="1" t="s">
         <v>1595</v>
       </c>
@@ -28955,7 +28956,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="355" spans="1:37">
+    <row r="355" spans="1:37" hidden="1">
       <c r="A355" s="1" t="s">
         <v>1590</v>
       </c>
@@ -29017,7 +29018,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="356" spans="1:37">
+    <row r="356" spans="1:37" hidden="1">
       <c r="A356" s="1" t="s">
         <v>1596</v>
       </c>
@@ -29079,7 +29080,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="357" spans="1:37">
+    <row r="357" spans="1:37" hidden="1">
       <c r="A357" s="1" t="s">
         <v>1597</v>
       </c>
@@ -29141,7 +29142,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="358" spans="1:37">
+    <row r="358" spans="1:37" hidden="1">
       <c r="A358" s="1" t="s">
         <v>1598</v>
       </c>
@@ -29203,7 +29204,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="359" spans="1:37">
+    <row r="359" spans="1:37" hidden="1">
       <c r="A359" s="1" t="s">
         <v>1599</v>
       </c>
@@ -29265,7 +29266,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="360" spans="1:37">
+    <row r="360" spans="1:37" hidden="1">
       <c r="A360" s="1" t="s">
         <v>1600</v>
       </c>
@@ -29325,7 +29326,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="361" spans="1:37">
+    <row r="361" spans="1:37" hidden="1">
       <c r="A361" s="1" t="s">
         <v>1601</v>
       </c>
@@ -29387,7 +29388,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="362" spans="1:37">
+    <row r="362" spans="1:37" hidden="1">
       <c r="A362" s="1" t="s">
         <v>1602</v>
       </c>
@@ -29449,7 +29450,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="363" spans="1:37">
+    <row r="363" spans="1:37" hidden="1">
       <c r="A363" s="1" t="s">
         <v>1603</v>
       </c>
@@ -29511,7 +29512,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="364" spans="1:37">
+    <row r="364" spans="1:37" hidden="1">
       <c r="A364" s="1" t="s">
         <v>1604</v>
       </c>
@@ -29573,7 +29574,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="365" spans="1:37">
+    <row r="365" spans="1:37" hidden="1">
       <c r="A365" s="1" t="s">
         <v>1605</v>
       </c>
@@ -29635,7 +29636,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="366" spans="1:37">
+    <row r="366" spans="1:37" hidden="1">
       <c r="A366" s="1" t="s">
         <v>1606</v>
       </c>
@@ -29697,7 +29698,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="367" spans="1:37">
+    <row r="367" spans="1:37" hidden="1">
       <c r="A367" s="1" t="s">
         <v>1607</v>
       </c>
@@ -29759,7 +29760,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="368" spans="1:37">
+    <row r="368" spans="1:37" hidden="1">
       <c r="A368" s="1" t="s">
         <v>1590</v>
       </c>
@@ -29821,7 +29822,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="369" spans="1:37">
+    <row r="369" spans="1:37" hidden="1">
       <c r="A369" s="1" t="s">
         <v>1608</v>
       </c>
@@ -29883,7 +29884,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="370" spans="1:37">
+    <row r="370" spans="1:37" hidden="1">
       <c r="A370" s="1" t="s">
         <v>1563</v>
       </c>
@@ -29945,7 +29946,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="371" spans="1:37">
+    <row r="371" spans="1:37" hidden="1">
       <c r="A371" s="1" t="s">
         <v>1609</v>
       </c>
@@ -30007,7 +30008,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="372" spans="1:37">
+    <row r="372" spans="1:37" hidden="1">
       <c r="A372" s="1" t="s">
         <v>1610</v>
       </c>
@@ -30069,7 +30070,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="373" spans="1:37">
+    <row r="373" spans="1:37" hidden="1">
       <c r="A373" s="1" t="s">
         <v>1611</v>
       </c>
@@ -30131,7 +30132,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="374" spans="1:37">
+    <row r="374" spans="1:37" hidden="1">
       <c r="A374" s="1" t="s">
         <v>1612</v>
       </c>
@@ -30193,7 +30194,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="375" spans="1:37">
+    <row r="375" spans="1:37" hidden="1">
       <c r="A375" s="49" t="s">
         <v>1613</v>
       </c>
@@ -30253,7 +30254,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="376" spans="1:37">
+    <row r="376" spans="1:37" hidden="1">
       <c r="A376" s="1" t="s">
         <v>1614</v>
       </c>
@@ -30315,7 +30316,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="377" spans="1:37">
+    <row r="377" spans="1:37" hidden="1">
       <c r="A377" s="1" t="s">
         <v>1615</v>
       </c>
@@ -30377,7 +30378,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="378" spans="1:37">
+    <row r="378" spans="1:37" hidden="1">
       <c r="A378" s="1" t="s">
         <v>1616</v>
       </c>
@@ -30439,7 +30440,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="379" spans="1:37">
+    <row r="379" spans="1:37" hidden="1">
       <c r="A379" s="1" t="s">
         <v>1617</v>
       </c>
@@ -30501,7 +30502,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="380" spans="1:37">
+    <row r="380" spans="1:37" hidden="1">
       <c r="A380" s="1" t="s">
         <v>1618</v>
       </c>
@@ -30563,7 +30564,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="381" spans="1:37">
+    <row r="381" spans="1:37" hidden="1">
       <c r="A381" s="1" t="s">
         <v>1619</v>
       </c>
@@ -30625,7 +30626,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="382" spans="1:37">
+    <row r="382" spans="1:37" hidden="1">
       <c r="A382" s="1" t="s">
         <v>1620</v>
       </c>
@@ -30687,7 +30688,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="383" spans="1:37">
+    <row r="383" spans="1:37" hidden="1">
       <c r="A383" s="1" t="s">
         <v>1621</v>
       </c>
@@ -30749,7 +30750,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="384" spans="1:37">
+    <row r="384" spans="1:37" hidden="1">
       <c r="A384" s="1" t="s">
         <v>1622</v>
       </c>
@@ -30811,7 +30812,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="385" spans="1:37">
+    <row r="385" spans="1:37" hidden="1">
       <c r="A385" s="1" t="s">
         <v>1623</v>
       </c>
@@ -30873,7 +30874,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="386" spans="1:37">
+    <row r="386" spans="1:37" hidden="1">
       <c r="A386" s="1" t="s">
         <v>1624</v>
       </c>
@@ -30935,7 +30936,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="387" spans="1:37">
+    <row r="387" spans="1:37" hidden="1">
       <c r="A387" s="1" t="s">
         <v>1625</v>
       </c>
@@ -30997,7 +30998,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="388" spans="1:37">
+    <row r="388" spans="1:37" hidden="1">
       <c r="A388" s="1" t="s">
         <v>1626</v>
       </c>
@@ -31059,7 +31060,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="389" spans="1:37">
+    <row r="389" spans="1:37" hidden="1">
       <c r="A389" s="1" t="s">
         <v>1627</v>
       </c>
@@ -31121,7 +31122,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="390" spans="1:37">
+    <row r="390" spans="1:37" hidden="1">
       <c r="A390" s="1" t="s">
         <v>1628</v>
       </c>
@@ -31183,7 +31184,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="391" spans="1:37">
+    <row r="391" spans="1:37" hidden="1">
       <c r="A391" s="1" t="s">
         <v>1629</v>
       </c>
@@ -31245,7 +31246,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="392" spans="1:37">
+    <row r="392" spans="1:37" hidden="1">
       <c r="A392" s="1" t="s">
         <v>1630</v>
       </c>
@@ -31307,7 +31308,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="393" spans="1:37">
+    <row r="393" spans="1:37" hidden="1">
       <c r="A393" s="1" t="s">
         <v>1631</v>
       </c>
@@ -31369,7 +31370,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="394" spans="1:37">
+    <row r="394" spans="1:37" hidden="1">
       <c r="A394" s="1" t="s">
         <v>1632</v>
       </c>
@@ -31431,7 +31432,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="395" spans="1:37">
+    <row r="395" spans="1:37" hidden="1">
       <c r="A395" s="1" t="s">
         <v>1633</v>
       </c>
@@ -31493,7 +31494,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="396" spans="1:37">
+    <row r="396" spans="1:37" hidden="1">
       <c r="A396" s="1" t="s">
         <v>1634</v>
       </c>
@@ -31555,7 +31556,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="397" spans="1:37">
+    <row r="397" spans="1:37" hidden="1">
       <c r="A397" s="1" t="s">
         <v>1635</v>
       </c>
@@ -31617,7 +31618,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="398" spans="1:37">
+    <row r="398" spans="1:37" hidden="1">
       <c r="A398" s="1" t="s">
         <v>1636</v>
       </c>
@@ -31679,7 +31680,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="399" spans="1:37">
+    <row r="399" spans="1:37" hidden="1">
       <c r="A399" s="1" t="s">
         <v>1637</v>
       </c>
@@ -31741,7 +31742,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="400" spans="1:37">
+    <row r="400" spans="1:37" hidden="1">
       <c r="A400" s="1" t="s">
         <v>1638</v>
       </c>
@@ -31803,7 +31804,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="401" spans="1:37">
+    <row r="401" spans="1:37" hidden="1">
       <c r="A401" s="1" t="s">
         <v>1552</v>
       </c>
@@ -31865,7 +31866,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="402" spans="1:37">
+    <row r="402" spans="1:37" hidden="1">
       <c r="A402" s="1" t="s">
         <v>1639</v>
       </c>
@@ -31927,7 +31928,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="403" spans="1:37">
+    <row r="403" spans="1:37" hidden="1">
       <c r="A403" s="1" t="s">
         <v>1640</v>
       </c>
@@ -31989,7 +31990,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="404" spans="1:37">
+    <row r="404" spans="1:37" hidden="1">
       <c r="A404" s="1" t="s">
         <v>1641</v>
       </c>
@@ -32051,7 +32052,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="405" spans="1:37">
+    <row r="405" spans="1:37" hidden="1">
       <c r="A405" s="1" t="s">
         <v>1642</v>
       </c>
@@ -32113,7 +32114,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="406" spans="1:37">
+    <row r="406" spans="1:37" hidden="1">
       <c r="A406" s="1" t="s">
         <v>1643</v>
       </c>
@@ -32175,7 +32176,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="407" spans="1:37">
+    <row r="407" spans="1:37" hidden="1">
       <c r="A407" s="1" t="s">
         <v>1644</v>
       </c>
@@ -32237,7 +32238,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="408" spans="1:37">
+    <row r="408" spans="1:37" hidden="1">
       <c r="A408" s="1" t="s">
         <v>1645</v>
       </c>
@@ -32299,7 +32300,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="409" spans="1:37">
+    <row r="409" spans="1:37" hidden="1">
       <c r="A409" s="1" t="s">
         <v>1646</v>
       </c>
@@ -32361,7 +32362,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="410" spans="1:37">
+    <row r="410" spans="1:37" hidden="1">
       <c r="A410" s="1" t="s">
         <v>1647</v>
       </c>
@@ -32423,7 +32424,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="411" spans="1:37">
+    <row r="411" spans="1:37" hidden="1">
       <c r="A411" s="1" t="s">
         <v>1648</v>
       </c>
@@ -32485,7 +32486,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="412" spans="1:37">
+    <row r="412" spans="1:37" hidden="1">
       <c r="A412" s="1" t="s">
         <v>1649</v>
       </c>
@@ -32547,7 +32548,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="413" spans="1:37">
+    <row r="413" spans="1:37" hidden="1">
       <c r="A413" s="1" t="s">
         <v>1650</v>
       </c>
@@ -32609,7 +32610,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="414" spans="1:37">
+    <row r="414" spans="1:37" hidden="1">
       <c r="A414" s="1" t="s">
         <v>1651</v>
       </c>
@@ -32671,7 +32672,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="415" spans="1:37">
+    <row r="415" spans="1:37" hidden="1">
       <c r="A415" s="1" t="s">
         <v>1652</v>
       </c>
@@ -32733,7 +32734,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="416" spans="1:37">
+    <row r="416" spans="1:37" hidden="1">
       <c r="A416" s="1" t="s">
         <v>1653</v>
       </c>
@@ -32795,7 +32796,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="417" spans="1:37">
+    <row r="417" spans="1:37" hidden="1">
       <c r="A417" s="1" t="s">
         <v>1654</v>
       </c>
@@ -32855,7 +32856,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="418" spans="1:37">
+    <row r="418" spans="1:37" hidden="1">
       <c r="A418" s="1" t="s">
         <v>1655</v>
       </c>
@@ -32917,7 +32918,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="419" spans="1:37">
+    <row r="419" spans="1:37" hidden="1">
       <c r="A419" s="1" t="s">
         <v>1656</v>
       </c>
@@ -32979,7 +32980,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="420" spans="1:37">
+    <row r="420" spans="1:37" hidden="1">
       <c r="A420" s="1" t="s">
         <v>1657</v>
       </c>
@@ -33041,7 +33042,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="421" spans="1:37">
+    <row r="421" spans="1:37" hidden="1">
       <c r="A421" s="1" t="s">
         <v>1658</v>
       </c>
@@ -33103,7 +33104,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="422" spans="1:37">
+    <row r="422" spans="1:37" hidden="1">
       <c r="A422" s="1" t="s">
         <v>1659</v>
       </c>
@@ -33165,7 +33166,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="423" spans="1:37">
+    <row r="423" spans="1:37" hidden="1">
       <c r="A423" s="1" t="s">
         <v>1660</v>
       </c>
@@ -33227,7 +33228,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="424" spans="1:37">
+    <row r="424" spans="1:37" hidden="1">
       <c r="A424" s="1" t="s">
         <v>1661</v>
       </c>
@@ -33289,7 +33290,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="425" spans="1:37">
+    <row r="425" spans="1:37" hidden="1">
       <c r="A425" s="1" t="s">
         <v>1662</v>
       </c>
@@ -33351,7 +33352,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="426" spans="1:37">
+    <row r="426" spans="1:37" hidden="1">
       <c r="A426" s="1" t="s">
         <v>1663</v>
       </c>
@@ -33413,7 +33414,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="427" spans="1:37">
+    <row r="427" spans="1:37" hidden="1">
       <c r="A427" s="1" t="s">
         <v>1664</v>
       </c>
@@ -33475,7 +33476,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="428" spans="1:37">
+    <row r="428" spans="1:37" hidden="1">
       <c r="A428" s="1" t="s">
         <v>1665</v>
       </c>
@@ -33537,7 +33538,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="429" spans="1:37">
+    <row r="429" spans="1:37" hidden="1">
       <c r="A429" s="1" t="s">
         <v>1666</v>
       </c>
@@ -33599,7 +33600,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="430" spans="1:37">
+    <row r="430" spans="1:37" hidden="1">
       <c r="A430" s="1" t="s">
         <v>1667</v>
       </c>
@@ -33661,7 +33662,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="431" spans="1:37">
+    <row r="431" spans="1:37" hidden="1">
       <c r="A431" s="1" t="s">
         <v>1668</v>
       </c>
@@ -33723,7 +33724,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="432" spans="1:37">
+    <row r="432" spans="1:37" hidden="1">
       <c r="A432" s="1" t="s">
         <v>1669</v>
       </c>
@@ -33785,7 +33786,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="433" spans="1:37">
+    <row r="433" spans="1:37" hidden="1">
       <c r="A433" s="1" t="s">
         <v>1670</v>
       </c>
@@ -33847,7 +33848,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="434" spans="1:37">
+    <row r="434" spans="1:37" hidden="1">
       <c r="A434" s="1" t="s">
         <v>1671</v>
       </c>
@@ -33909,7 +33910,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="435" spans="1:37">
+    <row r="435" spans="1:37" hidden="1">
       <c r="A435" s="1" t="s">
         <v>1672</v>
       </c>
@@ -33971,7 +33972,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="436" spans="1:37">
+    <row r="436" spans="1:37" hidden="1">
       <c r="A436" s="1" t="s">
         <v>1673</v>
       </c>
@@ -34033,7 +34034,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="437" spans="1:37">
+    <row r="437" spans="1:37" hidden="1">
       <c r="A437" s="1" t="s">
         <v>1674</v>
       </c>
@@ -34095,7 +34096,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="438" spans="1:37">
+    <row r="438" spans="1:37" hidden="1">
       <c r="A438" s="1" t="s">
         <v>1675</v>
       </c>
@@ -34157,7 +34158,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="439" spans="1:37">
+    <row r="439" spans="1:37" hidden="1">
       <c r="A439" s="1" t="s">
         <v>1676</v>
       </c>
@@ -34219,7 +34220,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="440" spans="1:37">
+    <row r="440" spans="1:37" hidden="1">
       <c r="A440" s="1" t="s">
         <v>1677</v>
       </c>
@@ -34281,7 +34282,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="441" spans="1:37">
+    <row r="441" spans="1:37" hidden="1">
       <c r="A441" s="1" t="s">
         <v>1678</v>
       </c>
@@ -34343,7 +34344,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="442" spans="1:37">
+    <row r="442" spans="1:37" hidden="1">
       <c r="A442" s="1" t="s">
         <v>1679</v>
       </c>
@@ -34405,7 +34406,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="443" spans="1:37">
+    <row r="443" spans="1:37" hidden="1">
       <c r="A443" s="1" t="s">
         <v>1680</v>
       </c>
@@ -34467,7 +34468,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="444" spans="1:37">
+    <row r="444" spans="1:37" hidden="1">
       <c r="A444" s="1" t="s">
         <v>1681</v>
       </c>
@@ -34529,7 +34530,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="445" spans="1:37">
+    <row r="445" spans="1:37" hidden="1">
       <c r="A445" s="1" t="s">
         <v>1682</v>
       </c>
@@ -34591,7 +34592,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="446" spans="1:37">
+    <row r="446" spans="1:37" hidden="1">
       <c r="A446" s="1" t="s">
         <v>1580</v>
       </c>
@@ -34653,7 +34654,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="447" spans="1:37">
+    <row r="447" spans="1:37" hidden="1">
       <c r="A447" s="1" t="s">
         <v>1683</v>
       </c>
@@ -34715,7 +34716,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="448" spans="1:37">
+    <row r="448" spans="1:37" hidden="1">
       <c r="A448" s="1" t="s">
         <v>1684</v>
       </c>
@@ -34777,7 +34778,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="449" spans="1:37">
+    <row r="449" spans="1:37" hidden="1">
       <c r="A449" s="1" t="s">
         <v>1666</v>
       </c>
@@ -34839,7 +34840,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="450" spans="1:37">
+    <row r="450" spans="1:37" hidden="1">
       <c r="A450" s="1" t="s">
         <v>1685</v>
       </c>
@@ -34901,7 +34902,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="451" spans="1:37">
+    <row r="451" spans="1:37" hidden="1">
       <c r="A451" s="1" t="s">
         <v>1686</v>
       </c>
@@ -34963,7 +34964,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="452" spans="1:37">
+    <row r="452" spans="1:37" hidden="1">
       <c r="A452" s="1" t="s">
         <v>1687</v>
       </c>
@@ -35025,7 +35026,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="453" spans="1:37">
+    <row r="453" spans="1:37" hidden="1">
       <c r="A453" s="1" t="s">
         <v>1688</v>
       </c>
@@ -35087,7 +35088,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="454" spans="1:37">
+    <row r="454" spans="1:37" hidden="1">
       <c r="A454" s="1" t="s">
         <v>1689</v>
       </c>
@@ -35149,7 +35150,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="455" spans="1:37">
+    <row r="455" spans="1:37" hidden="1">
       <c r="A455" s="1" t="s">
         <v>1690</v>
       </c>
@@ -35211,7 +35212,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="456" spans="1:37">
+    <row r="456" spans="1:37" hidden="1">
       <c r="A456" s="1" t="s">
         <v>1691</v>
       </c>
@@ -35273,7 +35274,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="457" spans="1:37">
+    <row r="457" spans="1:37" hidden="1">
       <c r="A457" s="1" t="s">
         <v>1692</v>
       </c>
@@ -35335,7 +35336,7 @@
         <v>2063</v>
       </c>
     </row>
-    <row r="458" spans="1:37">
+    <row r="458" spans="1:37" hidden="1">
       <c r="A458" s="1" t="s">
         <v>1693</v>
       </c>
@@ -35398,7 +35399,13 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AK458" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:AK458" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="36">
+      <filters>
+        <filter val="admin@pu.edu.in"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="B19:B73">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>

--- a/staff_data_pu.xlsx
+++ b/staff_data_pu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus_technology\backend-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6073A13-E0C7-4827-9907-9D47BCC446E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731CEA2-6D7B-4411-B36E-B939C1C60085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5415" yWindow="375" windowWidth="10965" windowHeight="12862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -7007,8 +7007,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:AK458"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" workbookViewId="0">
-      <selection sqref="A1:D306"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -13720,7 +13720,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:37" hidden="1">
+    <row r="108" spans="1:37">
       <c r="A108" s="1" t="s">
         <v>536</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="109" spans="1:37" hidden="1">
+    <row r="109" spans="1:37">
       <c r="A109" s="1" t="s">
         <v>537</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:37" hidden="1">
+    <row r="110" spans="1:37">
       <c r="A110" s="1" t="s">
         <v>538</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="111" spans="1:37" hidden="1">
+    <row r="111" spans="1:37">
       <c r="A111" s="1" t="s">
         <v>539</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="112" spans="1:37" hidden="1">
+    <row r="112" spans="1:37">
       <c r="A112" s="1" t="s">
         <v>540</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="113" spans="1:37" hidden="1">
+    <row r="113" spans="1:37">
       <c r="A113" s="1" t="s">
         <v>541</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:37" hidden="1">
+    <row r="114" spans="1:37">
       <c r="A114" s="1" t="s">
         <v>542</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="115" spans="1:37" hidden="1">
+    <row r="115" spans="1:37">
       <c r="A115" s="1" t="s">
         <v>543</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="116" spans="1:37" hidden="1">
+    <row r="116" spans="1:37">
       <c r="A116" s="1" t="s">
         <v>544</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="1:37" hidden="1">
+    <row r="117" spans="1:37">
       <c r="A117" s="1" t="s">
         <v>545</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="118" spans="1:37" hidden="1">
+    <row r="118" spans="1:37">
       <c r="A118" s="1" t="s">
         <v>546</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="119" spans="1:37" hidden="1">
+    <row r="119" spans="1:37">
       <c r="A119" s="1" t="s">
         <v>547</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="120" spans="1:37" hidden="1">
+    <row r="120" spans="1:37">
       <c r="A120" s="1" t="s">
         <v>548</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="121" spans="1:37" hidden="1">
+    <row r="121" spans="1:37">
       <c r="A121" s="1" t="s">
         <v>549</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="122" spans="1:37" hidden="1">
+    <row r="122" spans="1:37">
       <c r="A122" s="1" t="s">
         <v>550</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="123" spans="1:37" hidden="1">
+    <row r="123" spans="1:37">
       <c r="A123" s="1" t="s">
         <v>551</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="124" spans="1:37" hidden="1">
+    <row r="124" spans="1:37">
       <c r="A124" s="1" t="s">
         <v>552</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="125" spans="1:37" hidden="1">
+    <row r="125" spans="1:37">
       <c r="A125" s="1" t="s">
         <v>553</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="126" spans="1:37" hidden="1">
+    <row r="126" spans="1:37">
       <c r="A126" s="1" t="s">
         <v>554</v>
       </c>
@@ -14898,7 +14898,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="127" spans="1:37">
+    <row r="127" spans="1:37" hidden="1">
       <c r="A127" s="29" t="s">
         <v>598</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="128" spans="1:37">
+    <row r="128" spans="1:37" hidden="1">
       <c r="A128" s="29" t="s">
         <v>599</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="129" spans="1:37">
+    <row r="129" spans="1:37" hidden="1">
       <c r="A129" s="29" t="s">
         <v>600</v>
       </c>
@@ -15082,7 +15082,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="130" spans="1:37">
+    <row r="130" spans="1:37" hidden="1">
       <c r="A130" s="29" t="s">
         <v>601</v>
       </c>
@@ -15142,7 +15142,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="131" spans="1:37">
+    <row r="131" spans="1:37" hidden="1">
       <c r="A131" s="29" t="s">
         <v>602</v>
       </c>
@@ -15204,7 +15204,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="132" spans="1:37">
+    <row r="132" spans="1:37" hidden="1">
       <c r="A132" s="29" t="s">
         <v>603</v>
       </c>
@@ -15266,7 +15266,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="133" spans="1:37">
+    <row r="133" spans="1:37" hidden="1">
       <c r="A133" s="29" t="s">
         <v>604</v>
       </c>
@@ -15328,7 +15328,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="134" spans="1:37">
+    <row r="134" spans="1:37" hidden="1">
       <c r="A134" s="29" t="s">
         <v>605</v>
       </c>
@@ -15390,7 +15390,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="135" spans="1:37">
+    <row r="135" spans="1:37" hidden="1">
       <c r="A135" s="29" t="s">
         <v>606</v>
       </c>
@@ -15452,7 +15452,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="136" spans="1:37">
+    <row r="136" spans="1:37" hidden="1">
       <c r="A136" s="29" t="s">
         <v>607</v>
       </c>
@@ -15514,7 +15514,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="137" spans="1:37">
+    <row r="137" spans="1:37" hidden="1">
       <c r="A137" s="29" t="s">
         <v>608</v>
       </c>
@@ -15576,7 +15576,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="138" spans="1:37">
+    <row r="138" spans="1:37" hidden="1">
       <c r="A138" s="29" t="s">
         <v>609</v>
       </c>
@@ -15638,7 +15638,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="139" spans="1:37">
+    <row r="139" spans="1:37" hidden="1">
       <c r="A139" s="29" t="s">
         <v>610</v>
       </c>
@@ -15698,7 +15698,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="140" spans="1:37">
+    <row r="140" spans="1:37" hidden="1">
       <c r="A140" s="29" t="s">
         <v>611</v>
       </c>
@@ -15758,7 +15758,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="141" spans="1:37">
+    <row r="141" spans="1:37" hidden="1">
       <c r="A141" s="29" t="s">
         <v>612</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="142" spans="1:37">
+    <row r="142" spans="1:37" hidden="1">
       <c r="A142" s="29" t="s">
         <v>613</v>
       </c>
@@ -15882,7 +15882,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="143" spans="1:37">
+    <row r="143" spans="1:37" hidden="1">
       <c r="A143" s="29" t="s">
         <v>614</v>
       </c>
@@ -15944,7 +15944,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="144" spans="1:37">
+    <row r="144" spans="1:37" hidden="1">
       <c r="A144" s="29" t="s">
         <v>615</v>
       </c>
@@ -16006,7 +16006,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="145" spans="1:37">
+    <row r="145" spans="1:37" hidden="1">
       <c r="A145" s="29" t="s">
         <v>616</v>
       </c>
@@ -16068,7 +16068,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="146" spans="1:37">
+    <row r="146" spans="1:37" hidden="1">
       <c r="A146" s="29" t="s">
         <v>617</v>
       </c>
@@ -16130,7 +16130,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="147" spans="1:37">
+    <row r="147" spans="1:37" hidden="1">
       <c r="A147" s="29" t="s">
         <v>618</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="148" spans="1:37">
+    <row r="148" spans="1:37" hidden="1">
       <c r="A148" s="29" t="s">
         <v>619</v>
       </c>
@@ -16252,7 +16252,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="149" spans="1:37">
+    <row r="149" spans="1:37" hidden="1">
       <c r="A149" s="29" t="s">
         <v>620</v>
       </c>
@@ -16314,7 +16314,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="150" spans="1:37">
+    <row r="150" spans="1:37" hidden="1">
       <c r="A150" s="29" t="s">
         <v>621</v>
       </c>
@@ -16376,7 +16376,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="151" spans="1:37">
+    <row r="151" spans="1:37" hidden="1">
       <c r="A151" s="29" t="s">
         <v>622</v>
       </c>
@@ -16438,7 +16438,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="152" spans="1:37">
+    <row r="152" spans="1:37" hidden="1">
       <c r="A152" s="29" t="s">
         <v>623</v>
       </c>
@@ -16498,7 +16498,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="153" spans="1:37">
+    <row r="153" spans="1:37" hidden="1">
       <c r="A153" s="29" t="s">
         <v>624</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="154" spans="1:37">
+    <row r="154" spans="1:37" hidden="1">
       <c r="A154" s="29" t="s">
         <v>625</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="155" spans="1:37">
+    <row r="155" spans="1:37" hidden="1">
       <c r="A155" s="29" t="s">
         <v>626</v>
       </c>
@@ -16682,7 +16682,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="156" spans="1:37">
+    <row r="156" spans="1:37" hidden="1">
       <c r="A156" s="29" t="s">
         <v>627</v>
       </c>
@@ -16744,7 +16744,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="157" spans="1:37">
+    <row r="157" spans="1:37" hidden="1">
       <c r="A157" s="29" t="s">
         <v>628</v>
       </c>
@@ -16806,7 +16806,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="158" spans="1:37">
+    <row r="158" spans="1:37" hidden="1">
       <c r="A158" s="29" t="s">
         <v>629</v>
       </c>
@@ -16868,7 +16868,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="159" spans="1:37">
+    <row r="159" spans="1:37" hidden="1">
       <c r="A159" s="29" t="s">
         <v>625</v>
       </c>
@@ -16930,7 +16930,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="160" spans="1:37">
+    <row r="160" spans="1:37" hidden="1">
       <c r="A160" s="29" t="s">
         <v>630</v>
       </c>
@@ -16992,7 +16992,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="161" spans="1:37">
+    <row r="161" spans="1:37" hidden="1">
       <c r="A161" s="29" t="s">
         <v>631</v>
       </c>
@@ -17052,7 +17052,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="162" spans="1:37">
+    <row r="162" spans="1:37" hidden="1">
       <c r="A162" s="29" t="s">
         <v>632</v>
       </c>
@@ -17114,7 +17114,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="163" spans="1:37">
+    <row r="163" spans="1:37" hidden="1">
       <c r="A163" s="29" t="s">
         <v>633</v>
       </c>
@@ -17176,7 +17176,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="164" spans="1:37">
+    <row r="164" spans="1:37" hidden="1">
       <c r="A164" s="29" t="s">
         <v>634</v>
       </c>
@@ -17238,7 +17238,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="165" spans="1:37">
+    <row r="165" spans="1:37" hidden="1">
       <c r="A165" s="29" t="s">
         <v>635</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="166" spans="1:37">
+    <row r="166" spans="1:37" hidden="1">
       <c r="A166" s="29" t="s">
         <v>636</v>
       </c>
@@ -17362,7 +17362,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="167" spans="1:37">
+    <row r="167" spans="1:37" hidden="1">
       <c r="A167" s="29" t="s">
         <v>634</v>
       </c>
@@ -17424,7 +17424,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="168" spans="1:37">
+    <row r="168" spans="1:37" hidden="1">
       <c r="A168" s="29" t="s">
         <v>637</v>
       </c>
@@ -17486,7 +17486,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="169" spans="1:37">
+    <row r="169" spans="1:37" hidden="1">
       <c r="A169" s="29" t="s">
         <v>638</v>
       </c>
@@ -17548,7 +17548,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="170" spans="1:37">
+    <row r="170" spans="1:37" hidden="1">
       <c r="A170" s="29" t="s">
         <v>639</v>
       </c>
@@ -17610,7 +17610,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="171" spans="1:37">
+    <row r="171" spans="1:37" hidden="1">
       <c r="A171" s="29" t="s">
         <v>640</v>
       </c>
@@ -17670,7 +17670,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="172" spans="1:37">
+    <row r="172" spans="1:37" hidden="1">
       <c r="A172" s="29" t="s">
         <v>641</v>
       </c>
@@ -17732,7 +17732,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="173" spans="1:37">
+    <row r="173" spans="1:37" hidden="1">
       <c r="A173" s="29" t="s">
         <v>642</v>
       </c>
@@ -17794,7 +17794,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="174" spans="1:37">
+    <row r="174" spans="1:37" hidden="1">
       <c r="A174" s="29" t="s">
         <v>643</v>
       </c>
@@ -17856,7 +17856,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="175" spans="1:37">
+    <row r="175" spans="1:37" hidden="1">
       <c r="A175" s="29" t="s">
         <v>644</v>
       </c>
@@ -17918,7 +17918,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="176" spans="1:37">
+    <row r="176" spans="1:37" hidden="1">
       <c r="A176" s="29" t="s">
         <v>645</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="177" spans="1:37">
+    <row r="177" spans="1:37" hidden="1">
       <c r="A177" s="29" t="s">
         <v>646</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="178" spans="1:37">
+    <row r="178" spans="1:37" hidden="1">
       <c r="A178" s="29" t="s">
         <v>647</v>
       </c>
@@ -18102,7 +18102,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="179" spans="1:37">
+    <row r="179" spans="1:37" hidden="1">
       <c r="A179" s="29" t="s">
         <v>648</v>
       </c>
@@ -18164,7 +18164,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="180" spans="1:37">
+    <row r="180" spans="1:37" hidden="1">
       <c r="A180" s="29" t="s">
         <v>649</v>
       </c>
@@ -18226,7 +18226,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="181" spans="1:37">
+    <row r="181" spans="1:37" hidden="1">
       <c r="A181" s="29" t="s">
         <v>650</v>
       </c>
@@ -18288,7 +18288,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="182" spans="1:37">
+    <row r="182" spans="1:37" hidden="1">
       <c r="A182" s="29" t="s">
         <v>651</v>
       </c>
@@ -18350,7 +18350,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="183" spans="1:37">
+    <row r="183" spans="1:37" hidden="1">
       <c r="A183" s="29" t="s">
         <v>652</v>
       </c>
@@ -18410,7 +18410,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="184" spans="1:37">
+    <row r="184" spans="1:37" hidden="1">
       <c r="A184" s="29" t="s">
         <v>653</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="185" spans="1:37">
+    <row r="185" spans="1:37" hidden="1">
       <c r="A185" s="29" t="s">
         <v>654</v>
       </c>
@@ -18534,7 +18534,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="186" spans="1:37">
+    <row r="186" spans="1:37" hidden="1">
       <c r="A186" s="29" t="s">
         <v>655</v>
       </c>
@@ -18596,7 +18596,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="187" spans="1:37">
+    <row r="187" spans="1:37" hidden="1">
       <c r="A187" s="29" t="s">
         <v>656</v>
       </c>
@@ -18656,7 +18656,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="188" spans="1:37">
+    <row r="188" spans="1:37" hidden="1">
       <c r="A188" s="29" t="s">
         <v>657</v>
       </c>
@@ -18718,7 +18718,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="189" spans="1:37">
+    <row r="189" spans="1:37" hidden="1">
       <c r="A189" s="29" t="s">
         <v>658</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="190" spans="1:37">
+    <row r="190" spans="1:37" hidden="1">
       <c r="A190" s="29" t="s">
         <v>659</v>
       </c>
@@ -18842,7 +18842,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="191" spans="1:37">
+    <row r="191" spans="1:37" hidden="1">
       <c r="A191" s="29" t="s">
         <v>660</v>
       </c>
@@ -18902,7 +18902,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="192" spans="1:37">
+    <row r="192" spans="1:37" hidden="1">
       <c r="A192" s="29" t="s">
         <v>661</v>
       </c>
@@ -18964,7 +18964,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="193" spans="1:37">
+    <row r="193" spans="1:37" hidden="1">
       <c r="A193" s="29" t="s">
         <v>662</v>
       </c>
@@ -19026,7 +19026,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="194" spans="1:37">
+    <row r="194" spans="1:37" hidden="1">
       <c r="A194" s="29" t="s">
         <v>663</v>
       </c>
@@ -19086,7 +19086,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="195" spans="1:37">
+    <row r="195" spans="1:37" hidden="1">
       <c r="A195" s="29" t="s">
         <v>664</v>
       </c>
@@ -19148,7 +19148,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="196" spans="1:37">
+    <row r="196" spans="1:37" hidden="1">
       <c r="A196" s="29" t="s">
         <v>665</v>
       </c>
@@ -19210,7 +19210,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="197" spans="1:37">
+    <row r="197" spans="1:37" hidden="1">
       <c r="A197" s="29" t="s">
         <v>666</v>
       </c>
@@ -19272,7 +19272,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="198" spans="1:37">
+    <row r="198" spans="1:37" hidden="1">
       <c r="A198" s="29" t="s">
         <v>667</v>
       </c>
@@ -19334,7 +19334,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="199" spans="1:37">
+    <row r="199" spans="1:37" hidden="1">
       <c r="A199" s="29" t="s">
         <v>668</v>
       </c>
@@ -19396,7 +19396,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="200" spans="1:37">
+    <row r="200" spans="1:37" hidden="1">
       <c r="A200" s="29" t="s">
         <v>669</v>
       </c>
@@ -19456,7 +19456,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="201" spans="1:37">
+    <row r="201" spans="1:37" hidden="1">
       <c r="A201" s="29" t="s">
         <v>670</v>
       </c>
@@ -19518,7 +19518,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="202" spans="1:37">
+    <row r="202" spans="1:37" hidden="1">
       <c r="A202" s="29" t="s">
         <v>671</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="203" spans="1:37">
+    <row r="203" spans="1:37" hidden="1">
       <c r="A203" s="29" t="s">
         <v>672</v>
       </c>
@@ -19642,7 +19642,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="204" spans="1:37">
+    <row r="204" spans="1:37" hidden="1">
       <c r="A204" s="29" t="s">
         <v>673</v>
       </c>
@@ -19704,7 +19704,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="205" spans="1:37">
+    <row r="205" spans="1:37" hidden="1">
       <c r="A205" s="29" t="s">
         <v>674</v>
       </c>
@@ -19764,7 +19764,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="206" spans="1:37">
+    <row r="206" spans="1:37" hidden="1">
       <c r="A206" s="29" t="s">
         <v>675</v>
       </c>
@@ -19826,7 +19826,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="207" spans="1:37">
+    <row r="207" spans="1:37" hidden="1">
       <c r="A207" s="29" t="s">
         <v>676</v>
       </c>
@@ -19888,7 +19888,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="208" spans="1:37">
+    <row r="208" spans="1:37" hidden="1">
       <c r="A208" s="29" t="s">
         <v>677</v>
       </c>
@@ -19948,7 +19948,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="209" spans="1:37">
+    <row r="209" spans="1:37" hidden="1">
       <c r="A209" s="29" t="s">
         <v>678</v>
       </c>
@@ -20010,7 +20010,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="210" spans="1:37">
+    <row r="210" spans="1:37" hidden="1">
       <c r="A210" s="29" t="s">
         <v>679</v>
       </c>
@@ -20072,7 +20072,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="211" spans="1:37">
+    <row r="211" spans="1:37" hidden="1">
       <c r="A211" s="29" t="s">
         <v>680</v>
       </c>
@@ -20134,7 +20134,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="212" spans="1:37">
+    <row r="212" spans="1:37" hidden="1">
       <c r="A212" s="29" t="s">
         <v>681</v>
       </c>
@@ -20196,7 +20196,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="213" spans="1:37">
+    <row r="213" spans="1:37" hidden="1">
       <c r="A213" s="29" t="s">
         <v>682</v>
       </c>
@@ -20258,7 +20258,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="214" spans="1:37">
+    <row r="214" spans="1:37" hidden="1">
       <c r="A214" s="29" t="s">
         <v>683</v>
       </c>
@@ -20320,7 +20320,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="215" spans="1:37">
+    <row r="215" spans="1:37" hidden="1">
       <c r="A215" s="29" t="s">
         <v>684</v>
       </c>
@@ -20382,7 +20382,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="216" spans="1:37">
+    <row r="216" spans="1:37" hidden="1">
       <c r="A216" s="29" t="s">
         <v>685</v>
       </c>
@@ -20444,7 +20444,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="217" spans="1:37">
+    <row r="217" spans="1:37" hidden="1">
       <c r="A217" s="29" t="s">
         <v>686</v>
       </c>
@@ -20504,7 +20504,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="218" spans="1:37">
+    <row r="218" spans="1:37" hidden="1">
       <c r="A218" s="29" t="s">
         <v>687</v>
       </c>
@@ -20566,7 +20566,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="219" spans="1:37">
+    <row r="219" spans="1:37" hidden="1">
       <c r="A219" s="29" t="s">
         <v>688</v>
       </c>
@@ -20628,7 +20628,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="220" spans="1:37">
+    <row r="220" spans="1:37" hidden="1">
       <c r="A220" s="29" t="s">
         <v>689</v>
       </c>
@@ -20690,7 +20690,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="221" spans="1:37">
+    <row r="221" spans="1:37" hidden="1">
       <c r="A221" s="29" t="s">
         <v>690</v>
       </c>
@@ -20752,7 +20752,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="222" spans="1:37">
+    <row r="222" spans="1:37" hidden="1">
       <c r="A222" s="29" t="s">
         <v>691</v>
       </c>
@@ -20814,7 +20814,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="223" spans="1:37">
+    <row r="223" spans="1:37" hidden="1">
       <c r="A223" s="29" t="s">
         <v>692</v>
       </c>
@@ -20874,7 +20874,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="224" spans="1:37">
+    <row r="224" spans="1:37" hidden="1">
       <c r="A224" s="29" t="s">
         <v>693</v>
       </c>
@@ -20934,7 +20934,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="225" spans="1:37">
+    <row r="225" spans="1:37" hidden="1">
       <c r="A225" s="29" t="s">
         <v>694</v>
       </c>
@@ -20996,7 +20996,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="226" spans="1:37">
+    <row r="226" spans="1:37" hidden="1">
       <c r="A226" s="29" t="s">
         <v>695</v>
       </c>
@@ -21058,7 +21058,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="227" spans="1:37">
+    <row r="227" spans="1:37" hidden="1">
       <c r="A227" s="29" t="s">
         <v>696</v>
       </c>
@@ -21118,7 +21118,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="228" spans="1:37">
+    <row r="228" spans="1:37" hidden="1">
       <c r="A228" s="29" t="s">
         <v>697</v>
       </c>
@@ -21180,7 +21180,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="229" spans="1:37">
+    <row r="229" spans="1:37" hidden="1">
       <c r="A229" s="29" t="s">
         <v>648</v>
       </c>
@@ -21240,7 +21240,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="230" spans="1:37">
+    <row r="230" spans="1:37" hidden="1">
       <c r="A230" s="29" t="s">
         <v>698</v>
       </c>
@@ -21300,7 +21300,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="231" spans="1:37">
+    <row r="231" spans="1:37" hidden="1">
       <c r="A231" s="29" t="s">
         <v>699</v>
       </c>
@@ -21362,7 +21362,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="232" spans="1:37">
+    <row r="232" spans="1:37" hidden="1">
       <c r="A232" s="29" t="s">
         <v>700</v>
       </c>
@@ -21424,7 +21424,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="233" spans="1:37">
+    <row r="233" spans="1:37" hidden="1">
       <c r="A233" s="29" t="s">
         <v>701</v>
       </c>
@@ -21486,7 +21486,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="234" spans="1:37">
+    <row r="234" spans="1:37" hidden="1">
       <c r="A234" s="29" t="s">
         <v>702</v>
       </c>
@@ -21548,7 +21548,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="235" spans="1:37">
+    <row r="235" spans="1:37" hidden="1">
       <c r="A235" s="29" t="s">
         <v>703</v>
       </c>
@@ -21610,7 +21610,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="236" spans="1:37">
+    <row r="236" spans="1:37" hidden="1">
       <c r="A236" s="29" t="s">
         <v>704</v>
       </c>
@@ -21672,7 +21672,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="237" spans="1:37">
+    <row r="237" spans="1:37" hidden="1">
       <c r="A237" s="29" t="s">
         <v>705</v>
       </c>
@@ -21734,7 +21734,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="238" spans="1:37">
+    <row r="238" spans="1:37" hidden="1">
       <c r="A238" s="29" t="s">
         <v>706</v>
       </c>
@@ -21794,7 +21794,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="239" spans="1:37">
+    <row r="239" spans="1:37" hidden="1">
       <c r="A239" s="29" t="s">
         <v>707</v>
       </c>
@@ -21856,7 +21856,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="240" spans="1:37">
+    <row r="240" spans="1:37" hidden="1">
       <c r="A240" s="29" t="s">
         <v>708</v>
       </c>
@@ -21918,7 +21918,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="241" spans="1:37">
+    <row r="241" spans="1:37" hidden="1">
       <c r="A241" s="29" t="s">
         <v>709</v>
       </c>
@@ -21980,7 +21980,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="242" spans="1:37">
+    <row r="242" spans="1:37" hidden="1">
       <c r="A242" s="29" t="s">
         <v>710</v>
       </c>
@@ -22042,7 +22042,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="243" spans="1:37">
+    <row r="243" spans="1:37" hidden="1">
       <c r="A243" s="29" t="s">
         <v>711</v>
       </c>
@@ -22104,7 +22104,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="244" spans="1:37">
+    <row r="244" spans="1:37" hidden="1">
       <c r="A244" s="29" t="s">
         <v>712</v>
       </c>
@@ -22166,7 +22166,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="245" spans="1:37">
+    <row r="245" spans="1:37" hidden="1">
       <c r="A245" s="29" t="s">
         <v>713</v>
       </c>
@@ -22228,7 +22228,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="246" spans="1:37">
+    <row r="246" spans="1:37" hidden="1">
       <c r="A246" s="29" t="s">
         <v>714</v>
       </c>
@@ -22290,7 +22290,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="247" spans="1:37">
+    <row r="247" spans="1:37" hidden="1">
       <c r="A247" s="29" t="s">
         <v>715</v>
       </c>
@@ -22352,7 +22352,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="248" spans="1:37">
+    <row r="248" spans="1:37" hidden="1">
       <c r="A248" s="29" t="s">
         <v>716</v>
       </c>
@@ -22414,7 +22414,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="249" spans="1:37">
+    <row r="249" spans="1:37" hidden="1">
       <c r="A249" s="29" t="s">
         <v>717</v>
       </c>
@@ -22476,7 +22476,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="250" spans="1:37">
+    <row r="250" spans="1:37" hidden="1">
       <c r="A250" s="29" t="s">
         <v>718</v>
       </c>
@@ -22536,7 +22536,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="251" spans="1:37">
+    <row r="251" spans="1:37" hidden="1">
       <c r="A251" s="29" t="s">
         <v>719</v>
       </c>
@@ -22598,7 +22598,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="252" spans="1:37">
+    <row r="252" spans="1:37" hidden="1">
       <c r="A252" s="29" t="s">
         <v>720</v>
       </c>
@@ -22660,7 +22660,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="253" spans="1:37">
+    <row r="253" spans="1:37" hidden="1">
       <c r="A253" s="29" t="s">
         <v>721</v>
       </c>
@@ -22722,7 +22722,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="254" spans="1:37">
+    <row r="254" spans="1:37" hidden="1">
       <c r="A254" s="29" t="s">
         <v>722</v>
       </c>
@@ -22784,7 +22784,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="255" spans="1:37">
+    <row r="255" spans="1:37" hidden="1">
       <c r="A255" s="29" t="s">
         <v>723</v>
       </c>
@@ -22846,7 +22846,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="256" spans="1:37">
+    <row r="256" spans="1:37" hidden="1">
       <c r="A256" s="29" t="s">
         <v>724</v>
       </c>
@@ -22906,7 +22906,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="257" spans="1:37">
+    <row r="257" spans="1:37" hidden="1">
       <c r="A257" s="29" t="s">
         <v>725</v>
       </c>
@@ -22966,7 +22966,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="258" spans="1:37">
+    <row r="258" spans="1:37" hidden="1">
       <c r="A258" s="29" t="s">
         <v>726</v>
       </c>
@@ -23026,7 +23026,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="259" spans="1:37">
+    <row r="259" spans="1:37" hidden="1">
       <c r="A259" s="29" t="s">
         <v>727</v>
       </c>
@@ -23088,7 +23088,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="260" spans="1:37">
+    <row r="260" spans="1:37" hidden="1">
       <c r="A260" s="29" t="s">
         <v>728</v>
       </c>
@@ -23150,7 +23150,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="261" spans="1:37">
+    <row r="261" spans="1:37" hidden="1">
       <c r="A261" s="29" t="s">
         <v>729</v>
       </c>
@@ -23212,7 +23212,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="262" spans="1:37">
+    <row r="262" spans="1:37" hidden="1">
       <c r="A262" s="29" t="s">
         <v>730</v>
       </c>
@@ -23274,7 +23274,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="263" spans="1:37">
+    <row r="263" spans="1:37" hidden="1">
       <c r="A263" s="29" t="s">
         <v>731</v>
       </c>
@@ -23336,7 +23336,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="264" spans="1:37">
+    <row r="264" spans="1:37" hidden="1">
       <c r="A264" s="29" t="s">
         <v>732</v>
       </c>
@@ -23398,7 +23398,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="265" spans="1:37">
+    <row r="265" spans="1:37" hidden="1">
       <c r="A265" s="29" t="s">
         <v>733</v>
       </c>
@@ -23460,7 +23460,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="266" spans="1:37">
+    <row r="266" spans="1:37" hidden="1">
       <c r="A266" s="29" t="s">
         <v>734</v>
       </c>
@@ -23522,7 +23522,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="267" spans="1:37">
+    <row r="267" spans="1:37" hidden="1">
       <c r="A267" s="29" t="s">
         <v>735</v>
       </c>
@@ -23584,7 +23584,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="268" spans="1:37">
+    <row r="268" spans="1:37" hidden="1">
       <c r="A268" s="29" t="s">
         <v>736</v>
       </c>
@@ -23646,7 +23646,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="269" spans="1:37">
+    <row r="269" spans="1:37" hidden="1">
       <c r="A269" s="29" t="s">
         <v>737</v>
       </c>
@@ -23708,7 +23708,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="270" spans="1:37">
+    <row r="270" spans="1:37" hidden="1">
       <c r="A270" s="29" t="s">
         <v>734</v>
       </c>
@@ -23770,7 +23770,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="271" spans="1:37">
+    <row r="271" spans="1:37" hidden="1">
       <c r="A271" s="29" t="s">
         <v>738</v>
       </c>
@@ -23832,7 +23832,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="272" spans="1:37">
+    <row r="272" spans="1:37" hidden="1">
       <c r="A272" s="29" t="s">
         <v>739</v>
       </c>
@@ -23894,7 +23894,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="273" spans="1:37">
+    <row r="273" spans="1:37" hidden="1">
       <c r="A273" s="29" t="s">
         <v>740</v>
       </c>
@@ -23956,7 +23956,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="274" spans="1:37">
+    <row r="274" spans="1:37" hidden="1">
       <c r="A274" s="29" t="s">
         <v>741</v>
       </c>
@@ -24018,7 +24018,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="275" spans="1:37">
+    <row r="275" spans="1:37" hidden="1">
       <c r="A275" s="29" t="s">
         <v>742</v>
       </c>
@@ -24080,7 +24080,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="276" spans="1:37">
+    <row r="276" spans="1:37" hidden="1">
       <c r="A276" s="29" t="s">
         <v>743</v>
       </c>
@@ -24140,7 +24140,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="277" spans="1:37">
+    <row r="277" spans="1:37" hidden="1">
       <c r="A277" s="29" t="s">
         <v>744</v>
       </c>
@@ -24202,7 +24202,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="278" spans="1:37">
+    <row r="278" spans="1:37" hidden="1">
       <c r="A278" s="29" t="s">
         <v>745</v>
       </c>
@@ -24262,7 +24262,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="279" spans="1:37">
+    <row r="279" spans="1:37" hidden="1">
       <c r="A279" s="29" t="s">
         <v>746</v>
       </c>
@@ -24324,7 +24324,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="280" spans="1:37">
+    <row r="280" spans="1:37" hidden="1">
       <c r="A280" s="29" t="s">
         <v>747</v>
       </c>
@@ -24386,7 +24386,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="281" spans="1:37">
+    <row r="281" spans="1:37" hidden="1">
       <c r="A281" s="29" t="s">
         <v>748</v>
       </c>
@@ -24448,7 +24448,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="282" spans="1:37">
+    <row r="282" spans="1:37" hidden="1">
       <c r="A282" s="29" t="s">
         <v>749</v>
       </c>
@@ -24510,7 +24510,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="283" spans="1:37">
+    <row r="283" spans="1:37" hidden="1">
       <c r="A283" s="29" t="s">
         <v>750</v>
       </c>
@@ -24572,7 +24572,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="284" spans="1:37">
+    <row r="284" spans="1:37" hidden="1">
       <c r="A284" s="29" t="s">
         <v>751</v>
       </c>
@@ -24632,7 +24632,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="285" spans="1:37">
+    <row r="285" spans="1:37" hidden="1">
       <c r="A285" s="29" t="s">
         <v>752</v>
       </c>
@@ -24694,7 +24694,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="286" spans="1:37">
+    <row r="286" spans="1:37" hidden="1">
       <c r="A286" s="29" t="s">
         <v>753</v>
       </c>
@@ -24756,7 +24756,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="287" spans="1:37">
+    <row r="287" spans="1:37" hidden="1">
       <c r="A287" s="29" t="s">
         <v>754</v>
       </c>
@@ -24818,7 +24818,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="288" spans="1:37">
+    <row r="288" spans="1:37" hidden="1">
       <c r="A288" s="29" t="s">
         <v>751</v>
       </c>
@@ -24878,7 +24878,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="289" spans="1:37">
+    <row r="289" spans="1:37" hidden="1">
       <c r="A289" s="29" t="s">
         <v>755</v>
       </c>
@@ -24940,7 +24940,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="290" spans="1:37">
+    <row r="290" spans="1:37" hidden="1">
       <c r="A290" s="29" t="s">
         <v>756</v>
       </c>
@@ -25002,7 +25002,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="291" spans="1:37">
+    <row r="291" spans="1:37" hidden="1">
       <c r="A291" s="29" t="s">
         <v>757</v>
       </c>
@@ -25062,7 +25062,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="292" spans="1:37">
+    <row r="292" spans="1:37" hidden="1">
       <c r="A292" s="29" t="s">
         <v>758</v>
       </c>
@@ -25124,7 +25124,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="293" spans="1:37">
+    <row r="293" spans="1:37" hidden="1">
       <c r="A293" s="29" t="s">
         <v>757</v>
       </c>
@@ -25184,7 +25184,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="294" spans="1:37">
+    <row r="294" spans="1:37" hidden="1">
       <c r="A294" s="29" t="s">
         <v>759</v>
       </c>
@@ -25244,7 +25244,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="295" spans="1:37">
+    <row r="295" spans="1:37" hidden="1">
       <c r="A295" s="29" t="s">
         <v>758</v>
       </c>
@@ -25304,7 +25304,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="296" spans="1:37">
+    <row r="296" spans="1:37" hidden="1">
       <c r="A296" s="29" t="s">
         <v>760</v>
       </c>
@@ -25366,7 +25366,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="297" spans="1:37">
+    <row r="297" spans="1:37" hidden="1">
       <c r="A297" s="29" t="s">
         <v>680</v>
       </c>
@@ -25428,7 +25428,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="298" spans="1:37">
+    <row r="298" spans="1:37" hidden="1">
       <c r="A298" s="29" t="s">
         <v>761</v>
       </c>
@@ -25490,7 +25490,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="299" spans="1:37">
+    <row r="299" spans="1:37" hidden="1">
       <c r="A299" s="29" t="s">
         <v>762</v>
       </c>
@@ -25552,7 +25552,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="300" spans="1:37">
+    <row r="300" spans="1:37" hidden="1">
       <c r="A300" s="29" t="s">
         <v>763</v>
       </c>
@@ -25614,7 +25614,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="301" spans="1:37">
+    <row r="301" spans="1:37" hidden="1">
       <c r="A301" s="29" t="s">
         <v>764</v>
       </c>
@@ -25674,7 +25674,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="302" spans="1:37">
+    <row r="302" spans="1:37" hidden="1">
       <c r="A302" s="29" t="s">
         <v>765</v>
       </c>
@@ -25734,7 +25734,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="303" spans="1:37">
+    <row r="303" spans="1:37" hidden="1">
       <c r="A303" s="29" t="s">
         <v>766</v>
       </c>
@@ -25796,7 +25796,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="304" spans="1:37">
+    <row r="304" spans="1:37" hidden="1">
       <c r="A304" s="29" t="s">
         <v>767</v>
       </c>
@@ -25858,7 +25858,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="305" spans="1:37">
+    <row r="305" spans="1:37" hidden="1">
       <c r="A305" s="29" t="s">
         <v>768</v>
       </c>
@@ -25920,7 +25920,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="306" spans="1:37">
+    <row r="306" spans="1:37" hidden="1">
       <c r="A306" s="30" t="s">
         <v>769</v>
       </c>
@@ -35402,7 +35402,7 @@
   <autoFilter ref="A1:AK458" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="36">
       <filters>
-        <filter val="admin@pu.edu.in"/>
+        <filter val="adminpimr@pu.edu.in"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/staff_data_pu.xlsx
+++ b/staff_data_pu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Campus_technology\backend-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A731CEA2-6D7B-4411-B36E-B939C1C60085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{072EC2DC-76F5-454A-B66F-049A945F3394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5415" yWindow="375" windowWidth="10965" windowHeight="12862" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Users" sheetId="1" r:id="rId1"/>
@@ -7008,7 +7008,7 @@
   <dimension ref="A1:AK458"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+      <selection activeCell="G464" sqref="G464"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -11614,7 +11614,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="74" spans="1:37" hidden="1">
+    <row r="74" spans="1:37">
       <c r="A74" s="1" t="s">
         <v>355</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="75" spans="1:37" hidden="1">
+    <row r="75" spans="1:37">
       <c r="A75" s="1" t="s">
         <v>356</v>
       </c>
@@ -11738,7 +11738,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="76" spans="1:37" hidden="1">
+    <row r="76" spans="1:37">
       <c r="A76" s="1" t="s">
         <v>357</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="77" spans="1:37" hidden="1">
+    <row r="77" spans="1:37">
       <c r="A77" s="1" t="s">
         <v>358</v>
       </c>
@@ -11862,7 +11862,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="78" spans="1:37" hidden="1">
+    <row r="78" spans="1:37">
       <c r="A78" s="1" t="s">
         <v>359</v>
       </c>
@@ -11924,7 +11924,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="79" spans="1:37" hidden="1">
+    <row r="79" spans="1:37">
       <c r="A79" s="1" t="s">
         <v>360</v>
       </c>
@@ -11986,7 +11986,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="80" spans="1:37" hidden="1">
+    <row r="80" spans="1:37">
       <c r="A80" s="1" t="s">
         <v>361</v>
       </c>
@@ -12048,7 +12048,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="81" spans="1:37" hidden="1">
+    <row r="81" spans="1:37">
       <c r="A81" s="1" t="s">
         <v>362</v>
       </c>
@@ -12110,7 +12110,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="82" spans="1:37" hidden="1">
+    <row r="82" spans="1:37">
       <c r="A82" s="1" t="s">
         <v>363</v>
       </c>
@@ -12172,7 +12172,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:37" hidden="1">
+    <row r="83" spans="1:37">
       <c r="A83" s="1" t="s">
         <v>364</v>
       </c>
@@ -12234,7 +12234,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="84" spans="1:37" hidden="1">
+    <row r="84" spans="1:37">
       <c r="A84" s="1" t="s">
         <v>365</v>
       </c>
@@ -12296,7 +12296,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="85" spans="1:37" hidden="1">
+    <row r="85" spans="1:37">
       <c r="A85" s="1" t="s">
         <v>366</v>
       </c>
@@ -12358,7 +12358,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="86" spans="1:37" hidden="1">
+    <row r="86" spans="1:37">
       <c r="A86" s="1" t="s">
         <v>367</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="108" spans="1:37">
+    <row r="108" spans="1:37" hidden="1">
       <c r="A108" s="1" t="s">
         <v>536</v>
       </c>
@@ -13782,7 +13782,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="109" spans="1:37">
+    <row r="109" spans="1:37" hidden="1">
       <c r="A109" s="1" t="s">
         <v>537</v>
       </c>
@@ -13844,7 +13844,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="110" spans="1:37">
+    <row r="110" spans="1:37" hidden="1">
       <c r="A110" s="1" t="s">
         <v>538</v>
       </c>
@@ -13906,7 +13906,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="111" spans="1:37">
+    <row r="111" spans="1:37" hidden="1">
       <c r="A111" s="1" t="s">
         <v>539</v>
       </c>
@@ -13968,7 +13968,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="112" spans="1:37">
+    <row r="112" spans="1:37" hidden="1">
       <c r="A112" s="1" t="s">
         <v>540</v>
       </c>
@@ -14030,7 +14030,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="113" spans="1:37">
+    <row r="113" spans="1:37" hidden="1">
       <c r="A113" s="1" t="s">
         <v>541</v>
       </c>
@@ -14092,7 +14092,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="114" spans="1:37">
+    <row r="114" spans="1:37" hidden="1">
       <c r="A114" s="1" t="s">
         <v>542</v>
       </c>
@@ -14154,7 +14154,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="115" spans="1:37">
+    <row r="115" spans="1:37" hidden="1">
       <c r="A115" s="1" t="s">
         <v>543</v>
       </c>
@@ -14216,7 +14216,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="116" spans="1:37">
+    <row r="116" spans="1:37" hidden="1">
       <c r="A116" s="1" t="s">
         <v>544</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="117" spans="1:37">
+    <row r="117" spans="1:37" hidden="1">
       <c r="A117" s="1" t="s">
         <v>545</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="118" spans="1:37">
+    <row r="118" spans="1:37" hidden="1">
       <c r="A118" s="1" t="s">
         <v>546</v>
       </c>
@@ -14402,7 +14402,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="119" spans="1:37">
+    <row r="119" spans="1:37" hidden="1">
       <c r="A119" s="1" t="s">
         <v>547</v>
       </c>
@@ -14464,7 +14464,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="120" spans="1:37">
+    <row r="120" spans="1:37" hidden="1">
       <c r="A120" s="1" t="s">
         <v>548</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="121" spans="1:37">
+    <row r="121" spans="1:37" hidden="1">
       <c r="A121" s="1" t="s">
         <v>549</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="122" spans="1:37">
+    <row r="122" spans="1:37" hidden="1">
       <c r="A122" s="1" t="s">
         <v>550</v>
       </c>
@@ -14650,7 +14650,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="123" spans="1:37">
+    <row r="123" spans="1:37" hidden="1">
       <c r="A123" s="1" t="s">
         <v>551</v>
       </c>
@@ -14712,7 +14712,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="124" spans="1:37">
+    <row r="124" spans="1:37" hidden="1">
       <c r="A124" s="1" t="s">
         <v>552</v>
       </c>
@@ -14774,7 +14774,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="125" spans="1:37">
+    <row r="125" spans="1:37" hidden="1">
       <c r="A125" s="1" t="s">
         <v>553</v>
       </c>
@@ -14836,7 +14836,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="126" spans="1:37">
+    <row r="126" spans="1:37" hidden="1">
       <c r="A126" s="1" t="s">
         <v>554</v>
       </c>
@@ -35402,7 +35402,7 @@
   <autoFilter ref="A1:AK458" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <filterColumn colId="36">
       <filters>
-        <filter val="adminpimr@pu.edu.in"/>
+        <filter val="admincsrd@pu.edu.in"/>
       </filters>
     </filterColumn>
   </autoFilter>
